--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>case_name</t>
   </si>
@@ -40,7 +40,16 @@
     <t>post</t>
   </si>
   <si>
+    <t>login_error</t>
+  </si>
+  <si>
     <t>{"name":"15330235989","pwd":"654321"}</t>
+  </si>
+  <si>
+    <t>login_null</t>
+  </si>
+  <si>
+    <t>{"name":"","pwd":""}</t>
   </si>
 </sst>
 </file>
@@ -50,8 +59,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,8 +79,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -79,8 +117,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,20 +141,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,44 +148,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,22 +178,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -193,7 +186,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +202,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +224,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,175 +314,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +429,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,50 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,16 +535,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,19 +553,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,94 +574,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="46.75" customWidth="1"/>
@@ -1025,15 +1034,29 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -57,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -93,26 +93,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,59 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -186,30 +202,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +230,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,139 +356,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,22 +433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,15 +459,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +480,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -501,17 +498,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,13 +538,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,109 +553,109 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,7 +1001,7 @@
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="46.75" customWidth="1"/>
-    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="order" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>case_name</t>
   </si>
@@ -57,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +80,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -102,7 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,68 +157,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,30 +180,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,175 +225,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,31 +419,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -464,16 +459,49 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,33 +516,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,16 +536,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,115 +554,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +995,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1067,4 +1068,40 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="order" sheetId="2" r:id="rId2"/>
+    <sheet name="search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>case_name</t>
   </si>
@@ -51,6 +51,27 @@
   </si>
   <si>
     <t>{"name":"","pwd":""}</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>/app/goods/goodsSpuPaged</t>
+  </si>
+  <si>
+    <t>{"pageIndex":1,"pageSize":20,"key":"德国"}</t>
+  </si>
+  <si>
+    <t>search_null</t>
+  </si>
+  <si>
+    <t>{"pageIndex":1,"pageSize":20,"key":"没有"}</t>
+  </si>
+  <si>
+    <t>search_nothing</t>
+  </si>
+  <si>
+    <t>{"pageIndex":1,"pageSize":20,"key":""}</t>
   </si>
 </sst>
 </file>
@@ -58,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,6 +96,112 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,66 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -155,17 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,43 +236,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -225,13 +246,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +354,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,121 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,26 +440,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,25 +494,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -502,6 +514,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,16 +557,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,115 +575,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +1015,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1073,17 +1094,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="44.75" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1098,6 +1119,48 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="search" sheetId="2" r:id="rId2"/>
+    <sheet name="order" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>case_name</t>
   </si>
@@ -72,6 +73,21 @@
   </si>
   <si>
     <t>{"pageIndex":1,"pageSize":20,"key":""}</t>
+  </si>
+  <si>
+    <t>yichang</t>
+  </si>
+  <si>
+    <t>/app/purchaseOrder/create</t>
+  </si>
+  <si>
+    <t>{"branchId":"248","orderSource":"2","goodsDetails":[{"spuUniqueCode":"Z74063382","skuId":"116","count":1}],"remark":"","isCoupon":false,"addressId":"361"}</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>{"branchId":"248","orderSource":"2","goodsDetails":[{"spuUniqueCode":"ZC21759290","skuId":"426","count":1}],"remark":"","isCoupon":false,"addressId":"361"}</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1112,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1167,4 +1183,67 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>